--- a/results/mp/logistic/corona/confidence/210/topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="120">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,37 +43,37 @@
     <t>kill</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
   </si>
   <si>
     <t>sc</t>
@@ -82,253 +82,298 @@
     <t>drop</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>cut</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
     <t>no</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
     <t>:</t>
   </si>
   <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>of</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>a</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
   <si>
     <t>in</t>
   </si>
   <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>!</t>
-  </si>
-  <si>
-    <t>we</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>i</t>
+    <t>'</t>
+  </si>
+  <si>
+    <t>is</t>
   </si>
 </sst>
 </file>
@@ -686,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -694,10 +739,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -755,13 +800,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8421052631578947</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -773,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3">
-        <v>0.9166666666666666</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -797,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -805,13 +850,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7931034482758621</v>
+        <v>0.7773972602739726</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -823,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -847,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -855,13 +900,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C5">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -873,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>73</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -897,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -905,13 +950,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7105263157894737</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -923,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -947,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -955,13 +1000,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6842105263157895</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -973,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7">
-        <v>0.8490566037735849</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L7">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -997,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1005,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6111111111111112</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C8">
         <v>22</v>
@@ -1023,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8">
-        <v>0.8461538461538461</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L8">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1047,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1055,13 +1100,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5652173913043478</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1073,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K9">
-        <v>0.835509138381201</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L9">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="M9">
-        <v>320</v>
+        <v>70</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1097,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1105,13 +1150,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5384615384615384</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1123,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8484848484848485</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1147,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1155,13 +1200,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5333333333333333</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1173,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K11">
-        <v>0.8297872340425532</v>
+        <v>0.8433420365535248</v>
       </c>
       <c r="L11">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="M11">
-        <v>39</v>
+        <v>323</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1197,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1226,16 +1271,16 @@
         <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K12">
-        <v>0.8275862068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L12">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1247,7 +1292,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1255,13 +1300,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1273,19 +1318,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.823943661971831</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1297,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1305,13 +1350,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4864864864864865</v>
+        <v>0.4302325581395349</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>222</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1323,19 +1368,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>19</v>
+        <v>294</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K14">
-        <v>0.795774647887324</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>113</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1347,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1355,13 +1400,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4497354497354497</v>
+        <v>0.417989417989418</v>
       </c>
       <c r="C15">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D15">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1373,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.8046875</v>
       </c>
       <c r="L15">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1397,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1405,13 +1450,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4406779661016949</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1423,19 +1468,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.7682926829268293</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="L16">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1447,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1455,13 +1500,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4341085271317829</v>
+        <v>0.3392857142857143</v>
       </c>
       <c r="C17">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1473,19 +1518,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>292</v>
+        <v>37</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K17">
-        <v>0.75</v>
+        <v>0.79375</v>
       </c>
       <c r="L17">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="M17">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1497,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1505,13 +1550,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3725490196078431</v>
+        <v>0.325</v>
       </c>
       <c r="C18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1523,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>0.7272727272727273</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L18">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1547,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1555,37 +1600,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.348993288590604</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C19">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>52</v>
       </c>
-      <c r="D19">
-        <v>52</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>97</v>
-      </c>
       <c r="J19" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K19">
-        <v>0.7209302325581395</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L19">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M19">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1597,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1605,13 +1650,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3333333333333333</v>
+        <v>0.2751677852348993</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1623,19 +1668,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K20">
-        <v>0.717948717948718</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1647,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1655,13 +1700,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1673,19 +1718,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1697,7 +1742,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1705,13 +1750,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3035714285714285</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1723,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1747,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1755,13 +1800,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2363636363636364</v>
+        <v>0.225</v>
       </c>
       <c r="C23">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1773,19 +1818,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>42</v>
+        <v>279</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K23">
-        <v>0.6825396825396826</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1797,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1805,13 +1850,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2277777777777778</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C24">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>82</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1823,19 +1868,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>278</v>
+        <v>63</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K24">
-        <v>0.6615384615384615</v>
+        <v>0.725</v>
       </c>
       <c r="L24">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1847,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1855,13 +1900,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1349206349206349</v>
+        <v>0.175</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1873,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>218</v>
+        <v>66</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K25">
-        <v>0.6323529411764706</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L25">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>215</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1897,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>125</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1905,13 +1950,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.08847184986595175</v>
+        <v>0.1555555555555556</v>
       </c>
       <c r="C26">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1923,19 +1968,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>340</v>
+        <v>76</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K26">
-        <v>0.6305084745762712</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L26">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1947,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>109</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1955,37 +2000,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01618646811265782</v>
+        <v>0.099601593625498</v>
       </c>
       <c r="C27">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="E27">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="F27">
-        <v>0.74</v>
+        <v>0.96</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>3039</v>
+        <v>226</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K27">
-        <v>0.6285714285714286</v>
+        <v>0.68</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1997,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2005,49 +2050,49 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.01607347876004592</v>
+        <v>0.07506702412868632</v>
       </c>
       <c r="C28">
+        <v>28</v>
+      </c>
+      <c r="D28">
+        <v>28</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>345</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28">
+        <v>0.6744186046511628</v>
+      </c>
+      <c r="L28">
+        <v>29</v>
+      </c>
+      <c r="M28">
+        <v>29</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>14</v>
-      </c>
-      <c r="D28">
-        <v>25</v>
-      </c>
-      <c r="E28">
-        <v>0.44</v>
-      </c>
-      <c r="F28">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>857</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K28">
-        <v>0.6071428571428571</v>
-      </c>
-      <c r="L28">
-        <v>17</v>
-      </c>
-      <c r="M28">
-        <v>17</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2055,37 +2100,37 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.01553062985332183</v>
+        <v>0.04333333333333333</v>
       </c>
       <c r="C29">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E29">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1141</v>
+        <v>287</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K29">
-        <v>0.6071428571428571</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2097,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2105,37 +2150,37 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.01326259946949602</v>
+        <v>0.02036199095022624</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="E30">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
       <c r="F30">
-        <v>0.62</v>
+        <v>0.83</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30">
-        <v>1116</v>
+        <v>3031</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K30">
-        <v>0.6063829787234043</v>
+        <v>0.6352941176470588</v>
       </c>
       <c r="L30">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="M30">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2147,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>37</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2155,37 +2200,37 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.01270110076206605</v>
+        <v>0.01728608470181504</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E31">
-        <v>0.36</v>
+        <v>0.17</v>
       </c>
       <c r="F31">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>2332</v>
+        <v>1137</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K31">
-        <v>0.602510460251046</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L31">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="M31">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2197,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2205,37 +2250,37 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01083372585963259</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="C32">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E32">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="F32">
-        <v>0.53</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2100</v>
+        <v>2321</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K32">
-        <v>0.6</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L32">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="M32">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2247,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2255,37 +2300,37 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.0074430823117338</v>
+        <v>0.01225836869401226</v>
       </c>
       <c r="C33">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E33">
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
       <c r="F33">
-        <v>0.4</v>
+        <v>0.54</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2267</v>
+        <v>2095</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K33">
-        <v>0.5285714285714286</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>142</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2297,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2305,37 +2350,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.007015902712815715</v>
+        <v>0.01040848389630793</v>
       </c>
       <c r="C34">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="E34">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="F34">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>2123</v>
+        <v>5039</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K34">
-        <v>0.5185185185185185</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2347,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2355,37 +2400,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.007014262333411269</v>
+        <v>0.01005684302579799</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="E35">
-        <v>0.63</v>
+        <v>0.49</v>
       </c>
       <c r="F35">
-        <v>0.37</v>
+        <v>0.51</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>4247</v>
+        <v>2264</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K35">
-        <v>0.5056179775280899</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2397,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>44</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2405,37 +2450,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.006704591629418936</v>
+        <v>0.009184845005740528</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D36">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="E36">
-        <v>0.6899999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="F36">
-        <v>0.3100000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>4889</v>
+        <v>2589</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K36">
-        <v>0.4901960784313725</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L36">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2447,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2455,13 +2500,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.006687647521636507</v>
+        <v>0.007949449653485529</v>
       </c>
       <c r="C37">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D37">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E37">
         <v>0.7</v>
@@ -2473,19 +2518,19 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>5050</v>
+        <v>4867</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K37">
-        <v>0.4888888888888889</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2497,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2505,37 +2550,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.006508422664624809</v>
+        <v>0.007621467132422992</v>
       </c>
       <c r="C38">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E38">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="F38">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>2595</v>
+        <v>3125</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K38">
-        <v>0.4814814814814815</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2547,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2555,37 +2600,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.006074168797953964</v>
+        <v>0.007112970711297071</v>
       </c>
       <c r="C39">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D39">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="E39">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="F39">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>3109</v>
+        <v>2373</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K39">
-        <v>0.4242424242424243</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2597,41 +2642,65 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.007029053420805998</v>
+      </c>
+      <c r="C40">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>90</v>
+      </c>
+      <c r="E40">
+        <v>0.67</v>
+      </c>
+      <c r="F40">
+        <v>0.33</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>4238</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K40">
-        <v>0.4027777777777778</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L40">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="N40">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K41">
-        <v>0.3571428571428572</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L41">
         <v>15</v>
@@ -2649,21 +2718,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>27</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K42">
-        <v>0.3333333333333333</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="L42">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M42">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2675,21 +2744,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>52</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43">
-        <v>0.265625</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L43">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M43">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2701,21 +2770,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K44">
-        <v>0.2542372881355932</v>
+        <v>0.5</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2727,21 +2796,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>44</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K45">
-        <v>0.2295081967213115</v>
+        <v>0.5</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2753,47 +2822,47 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>47</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K46">
-        <v>0.1805555555555556</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>59</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K47">
-        <v>0.08648648648648649</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L47">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2805,21 +2874,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>169</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K48">
-        <v>0.05519480519480519</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L48">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M48">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2831,605 +2900,969 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>291</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49">
-        <v>0.05311355311355311</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N49">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>517</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K50">
-        <v>0.04578313253012048</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L50">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M50">
         <v>20</v>
       </c>
       <c r="N50">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>396</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K51">
-        <v>0.04529616724738676</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N51">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O51">
-        <v>0.13</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>274</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K52">
-        <v>0.04177109440267335</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L52">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="N52">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1147</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K53">
-        <v>0.0303951367781155</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M53">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="N53">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>957</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="K54">
-        <v>0.02296686746987952</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="L54">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="M54">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="N54">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="O54">
-        <v>0.22</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2595</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="K55">
-        <v>0.02294154619736015</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L55">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="M55">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="N55">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>3109</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K56">
-        <v>0.02159468438538206</v>
+        <v>0.06776556776556776</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M56">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N56">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="O56">
-        <v>0.1899999999999999</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>589</v>
+        <v>509</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K57">
-        <v>0.02008928571428572</v>
+        <v>0.05519480519480519</v>
       </c>
       <c r="L57">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M57">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N57">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>878</v>
+        <v>291</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K58">
-        <v>0.02002503128911139</v>
+        <v>0.05004170141784821</v>
       </c>
       <c r="L58">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="M58">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="N58">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="O58">
-        <v>0.11</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>783</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="K59">
-        <v>0.01954602774274905</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="L59">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="M59">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N59">
-        <v>0.79</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>1555</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K60">
-        <v>0.01873536299765808</v>
+        <v>0.04529616724738676</v>
       </c>
       <c r="L60">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M60">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N60">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="O60">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="P60" t="b">
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>1257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K61">
-        <v>0.01589958158995816</v>
+        <v>0.04011461318051576</v>
       </c>
       <c r="L61">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="N61">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>2352</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="K62">
-        <v>0.0157863964139544</v>
+        <v>0.02483443708609271</v>
       </c>
       <c r="L62">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="N62">
-        <v>0.7</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O62">
-        <v>0.3</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>5050</v>
+        <v>589</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K63">
-        <v>0.01559934318555008</v>
+        <v>0.02460850111856823</v>
       </c>
       <c r="L63">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="N63">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.1899999999999999</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>2398</v>
+        <v>872</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="K64">
-        <v>0.01491033649002619</v>
+        <v>0.0244988864142539</v>
       </c>
       <c r="L64">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>107</v>
+        <v>25</v>
       </c>
       <c r="N64">
-        <v>0.6899999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O64">
-        <v>0.3100000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>4889</v>
+        <v>876</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="K65">
-        <v>0.01443695861405197</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M65">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N65">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="O65">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>1024</v>
+        <v>960</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>0.01186598417868776</v>
+        <v>0.02265238879736409</v>
       </c>
       <c r="L66">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M66">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="N66">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="O66">
-        <v>0.37</v>
+        <v>0.24</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>4247</v>
+        <v>2373</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K67">
-        <v>0.01090750436300175</v>
+        <v>0.02265005662514156</v>
       </c>
       <c r="L67">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M67">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="N67">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="O67">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
       <c r="P67" t="b">
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>2267</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="K68">
-        <v>0.009433962264150943</v>
+        <v>0.01947308132875143</v>
       </c>
       <c r="L68">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M68">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N68">
-        <v>0.47</v>
+        <v>0.65</v>
       </c>
       <c r="O68">
-        <v>0.53</v>
+        <v>0.35</v>
       </c>
       <c r="P68" t="b">
         <v>1</v>
       </c>
       <c r="Q68">
-        <v>2100</v>
+        <v>856</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="K69">
-        <v>0.009332711152589827</v>
+        <v>0.01926298157453936</v>
       </c>
       <c r="L69">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="M69">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="N69">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="O69">
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>2123</v>
+        <v>2342</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="K70">
-        <v>0.007237122179650915</v>
+        <v>0.01896333754740834</v>
       </c>
       <c r="L70">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="M70">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N70">
-        <v>0.36</v>
+        <v>0.71</v>
       </c>
       <c r="O70">
-        <v>0.64</v>
+        <v>0.29</v>
       </c>
       <c r="P70" t="b">
         <v>1</v>
       </c>
       <c r="Q70">
-        <v>2332</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K71">
+        <v>0.01842105263157895</v>
+      </c>
+      <c r="L71">
+        <v>14</v>
+      </c>
+      <c r="M71">
+        <v>24</v>
+      </c>
+      <c r="N71">
+        <v>0.58</v>
+      </c>
+      <c r="O71">
+        <v>0.42</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="72" spans="10:17">
+      <c r="J72" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K72">
+        <v>0.01832760595647194</v>
+      </c>
+      <c r="L72">
+        <v>16</v>
+      </c>
+      <c r="M72">
+        <v>21</v>
+      </c>
+      <c r="N72">
+        <v>0.76</v>
+      </c>
+      <c r="O72">
+        <v>0.24</v>
+      </c>
+      <c r="P72" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q72">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="73" spans="10:17">
+      <c r="J73" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K73">
+        <v>0.01815614282832358</v>
+      </c>
+      <c r="L73">
+        <v>90</v>
+      </c>
+      <c r="M73">
+        <v>129</v>
+      </c>
+      <c r="N73">
+        <v>0.7</v>
+      </c>
+      <c r="O73">
+        <v>0.3</v>
+      </c>
+      <c r="P73" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q73">
+        <v>4867</v>
+      </c>
+    </row>
+    <row r="74" spans="10:17">
+      <c r="J74" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K74">
+        <v>0.01643192488262911</v>
+      </c>
+      <c r="L74">
+        <v>21</v>
+      </c>
+      <c r="M74">
         <v>32</v>
       </c>
-      <c r="K71">
-        <v>0.005888125613346418</v>
-      </c>
-      <c r="L71">
+      <c r="N74">
+        <v>0.66</v>
+      </c>
+      <c r="O74">
+        <v>0.34</v>
+      </c>
+      <c r="P74" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q74">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="75" spans="10:17">
+      <c r="J75" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K75">
+        <v>0.01636764242996538</v>
+      </c>
+      <c r="L75">
+        <v>52</v>
+      </c>
+      <c r="M75">
+        <v>76</v>
+      </c>
+      <c r="N75">
+        <v>0.68</v>
+      </c>
+      <c r="O75">
+        <v>0.32</v>
+      </c>
+      <c r="P75" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q75">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="76" spans="10:17">
+      <c r="J76" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K76">
+        <v>0.01446480231436837</v>
+      </c>
+      <c r="L76">
+        <v>15</v>
+      </c>
+      <c r="M76">
         <v>18</v>
       </c>
-      <c r="M71">
-        <v>68</v>
-      </c>
-      <c r="N71">
-        <v>0.26</v>
-      </c>
-      <c r="O71">
-        <v>0.74</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>3039</v>
+      <c r="N76">
+        <v>0.83</v>
+      </c>
+      <c r="O76">
+        <v>0.17</v>
+      </c>
+      <c r="P76" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q76">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="77" spans="10:17">
+      <c r="J77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K77">
+        <v>0.01428012519561815</v>
+      </c>
+      <c r="L77">
+        <v>73</v>
+      </c>
+      <c r="M77">
+        <v>126</v>
+      </c>
+      <c r="N77">
+        <v>0.58</v>
+      </c>
+      <c r="O77">
+        <v>0.42</v>
+      </c>
+      <c r="P77" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q77">
+        <v>5039</v>
+      </c>
+    </row>
+    <row r="78" spans="10:17">
+      <c r="J78" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K78">
+        <v>0.01397298556124825</v>
+      </c>
+      <c r="L78">
+        <v>30</v>
+      </c>
+      <c r="M78">
+        <v>41</v>
+      </c>
+      <c r="N78">
+        <v>0.73</v>
+      </c>
+      <c r="O78">
+        <v>0.27</v>
+      </c>
+      <c r="P78" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q78">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="79" spans="10:17">
+      <c r="J79" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K79">
+        <v>0.01395998138669148</v>
+      </c>
+      <c r="L79">
+        <v>60</v>
+      </c>
+      <c r="M79">
+        <v>90</v>
+      </c>
+      <c r="N79">
+        <v>0.67</v>
+      </c>
+      <c r="O79">
+        <v>0.33</v>
+      </c>
+      <c r="P79" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q79">
+        <v>4238</v>
+      </c>
+    </row>
+    <row r="80" spans="10:17">
+      <c r="J80" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="K80">
+        <v>0.01311806256306761</v>
+      </c>
+      <c r="L80">
+        <v>13</v>
+      </c>
+      <c r="M80">
+        <v>21</v>
+      </c>
+      <c r="N80">
+        <v>0.62</v>
+      </c>
+      <c r="O80">
+        <v>0.38</v>
+      </c>
+      <c r="P80" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q80">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="81" spans="10:17">
+      <c r="J81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K81">
+        <v>0.01065643648763853</v>
+      </c>
+      <c r="L81">
+        <v>25</v>
+      </c>
+      <c r="M81">
+        <v>58</v>
+      </c>
+      <c r="N81">
+        <v>0.43</v>
+      </c>
+      <c r="O81">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P81" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q81">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K82">
+        <v>0.01039206424185168</v>
+      </c>
+      <c r="L82">
+        <v>22</v>
+      </c>
+      <c r="M82">
+        <v>48</v>
+      </c>
+      <c r="N82">
+        <v>0.46</v>
+      </c>
+      <c r="O82">
+        <v>0.54</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K83">
+        <v>0.01032448377581121</v>
+      </c>
+      <c r="L83">
+        <v>14</v>
+      </c>
+      <c r="M83">
+        <v>21</v>
+      </c>
+      <c r="N83">
+        <v>0.67</v>
+      </c>
+      <c r="O83">
+        <v>0.33</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K84">
+        <v>0.009623797025371828</v>
+      </c>
+      <c r="L84">
+        <v>22</v>
+      </c>
+      <c r="M84">
+        <v>45</v>
+      </c>
+      <c r="N84">
+        <v>0.49</v>
+      </c>
+      <c r="O84">
+        <v>0.51</v>
+      </c>
+      <c r="P84" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q84">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K85">
+        <v>0.004270696452036793</v>
+      </c>
+      <c r="L85">
+        <v>13</v>
+      </c>
+      <c r="M85">
+        <v>76</v>
+      </c>
+      <c r="N85">
+        <v>0.17</v>
+      </c>
+      <c r="O85">
+        <v>0.83</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>3031</v>
       </c>
     </row>
   </sheetData>
